--- a/evaluationResult.xlsx
+++ b/evaluationResult.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24090" windowHeight="10800"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24090" windowHeight="10800" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="SDNProbe" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>Length 5</t>
   </si>
@@ -48,6 +49,111 @@
   </si>
   <si>
     <t>Length 25</t>
+  </si>
+  <si>
+    <t>Neighbor 5</t>
+  </si>
+  <si>
+    <t>Neighbor 10</t>
+  </si>
+  <si>
+    <t>Neighbor 15</t>
+  </si>
+  <si>
+    <t>Neighbor 20</t>
+  </si>
+  <si>
+    <t>Neighbor 25</t>
+  </si>
+  <si>
+    <t>My Code</t>
+  </si>
+  <si>
+    <t>query</t>
+  </si>
+  <si>
+    <t>[+] Start to generate test packets</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [+] Constructing Rule Graph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Rule number: 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [+] Topological Sorting</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [+] Transitive Closure</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [+] Maximum Matching</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Maximum matching number: 66</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [+] Trace Path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Path number: 34</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [+] Output test packets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Test packet number: 34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Test packet generation time including construct rule graph (sec): 0.0471451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Test packet generation time (sec): 0.0334607</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [+] Output filename is: topology/example_topology.testpackets</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [+] Press any key to continue...</t>
+  </si>
+  <si>
+    <t>[+] Detection delay 0.910732030869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">query size: </t>
+  </si>
+  <si>
+    <t>31 ???</t>
+  </si>
+  <si>
+    <t xml:space="preserve">probe from sw_1 </t>
+  </si>
+  <si>
+    <t>probe from sw_2</t>
+  </si>
+  <si>
+    <t>probe from sw_3</t>
+  </si>
+  <si>
+    <t>probe from sw_4</t>
+  </si>
+  <si>
+    <t>probe from sw_5</t>
+  </si>
+  <si>
+    <t>CATCH-RULE INSTALLATION TIME:  0.01955</t>
+  </si>
+  <si>
+    <t>TIME ON LINK:  0.02685</t>
+  </si>
+  <si>
+    <t>packet generation   0.00224 sec</t>
+  </si>
+  <si>
+    <t>total time for 34 packets :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total model generating (query + probe) : </t>
   </si>
 </sst>
 </file>
@@ -83,8 +189,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -365,15 +472,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:G6"/>
+  <dimension ref="B3:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
@@ -451,6 +563,409 @@
       </c>
       <c r="G6">
         <v>0.13447000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>2.1199999999999999E-3</v>
+      </c>
+      <c r="D12">
+        <v>2.1700000000000001E-3</v>
+      </c>
+      <c r="E12">
+        <v>2.1800000000000001E-3</v>
+      </c>
+      <c r="F12">
+        <v>1.5E-3</v>
+      </c>
+      <c r="G12">
+        <v>2.15E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>8.7480000000000002E-2</v>
+      </c>
+      <c r="D13">
+        <v>0.17638000000000001</v>
+      </c>
+      <c r="E13">
+        <v>0.29259000000000002</v>
+      </c>
+      <c r="F13">
+        <v>0.32824999999999999</v>
+      </c>
+      <c r="G13">
+        <v>0.42659999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>0.10174</v>
+      </c>
+      <c r="D14">
+        <v>0.19514000000000001</v>
+      </c>
+      <c r="E14">
+        <v>0.30725000000000002</v>
+      </c>
+      <c r="F14">
+        <v>0.34308</v>
+      </c>
+      <c r="G14">
+        <v>0.44446999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:O51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>1.2691900000000001E-2</v>
+      </c>
+      <c r="O5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8">
+        <v>1.9350099999999999E-2</v>
+      </c>
+      <c r="O8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9">
+        <v>1.2330900000000001E-2</v>
+      </c>
+      <c r="O9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10">
+        <v>1.42536E-2</v>
+      </c>
+      <c r="O10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11">
+        <v>5.9142300000000004E-3</v>
+      </c>
+      <c r="O11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12">
+        <v>8.4035399999999993E-3</v>
+      </c>
+      <c r="O12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13">
+        <f>D5+D8</f>
+        <v>3.2042000000000001E-2</v>
+      </c>
+      <c r="O13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="O15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="O16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C20" s="1">
+        <v>8.0420000000000005E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>6.9599999999999995E-2</v>
+      </c>
+      <c r="O21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>7.1919999999999998E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>0.11322</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>6.9400000000000003E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>9.8150000000000001E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C26" s="1">
+        <v>7.3899999999999993E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>0.12537999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>6.6290000000000002E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C29" s="1">
+        <v>6.096E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>8.3140000000000006E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C31" s="1">
+        <v>6.8400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>6.4420000000000005E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>6.7909999999999998E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>6.0780000000000001E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>6.7400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="1">
+        <v>6.5640000000000004E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>9.9930000000000005E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>6.8669999999999995E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>7.2789999999999994E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>7.077E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>7.1779999999999997E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>0.10804999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>6.9529999999999995E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>8.1189999999999998E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>7.4399999999999994E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>6.7729999999999999E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>8.0850000000000005E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>0.11828</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>9.3960000000000002E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>9.2450000000000004E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <f>AVERAGE(C20:C50)</f>
+        <v>7.9913225806451604E-2</v>
       </c>
     </row>
   </sheetData>

--- a/evaluationResult.xlsx
+++ b/evaluationResult.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uio-my.sharepoint.com/personal/ramtina_uio_no/Documents/Evaluation/InjectPacket-extend-Frode work/traceroute/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{A357B6EB-BEE6-794E-BF34-4EB57A589830}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8FB05FEC-BBDC-3548-8F11-06F4DFCCCEDC}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24090" windowHeight="10800" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="SDNProbe" sheetId="2" r:id="rId2"/>
+    <sheet name="incremental probes" sheetId="4" r:id="rId2"/>
+    <sheet name="SDNProbe" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="83">
   <si>
     <t>Length 5</t>
   </si>
@@ -72,54 +81,6 @@
     <t>query</t>
   </si>
   <si>
-    <t>[+] Start to generate test packets</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [+] Constructing Rule Graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Rule number: 100</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [+] Topological Sorting</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [+] Transitive Closure</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [+] Maximum Matching</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Maximum matching number: 66</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [+] Trace Path</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Path number: 34</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [+] Output test packets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Test packet number: 34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Test packet generation time including construct rule graph (sec): 0.0471451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Test packet generation time (sec): 0.0334607</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [+] Output filename is: topology/example_topology.testpackets</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [+] Press any key to continue...</t>
-  </si>
-  <si>
-    <t>[+] Detection delay 0.910732030869</t>
-  </si>
-  <si>
     <t xml:space="preserve">query size: </t>
   </si>
   <si>
@@ -154,14 +115,190 @@
   </si>
   <si>
     <t xml:space="preserve">Total model generating (query + probe) : </t>
+  </si>
+  <si>
+    <t>traceroute</t>
+  </si>
+  <si>
+    <t>sdnProbe</t>
+  </si>
+  <si>
+    <t>ndb</t>
+  </si>
+  <si>
+    <t>spotlight-neighbor</t>
+  </si>
+  <si>
+    <t>spotlight-all</t>
+  </si>
+  <si>
+    <t>spotlight-tracerout</t>
+  </si>
+  <si>
+    <t>monitoring rule No.</t>
+  </si>
+  <si>
+    <t>packet No. with no error</t>
+  </si>
+  <si>
+    <t>packet No. errore in middle</t>
+  </si>
+  <si>
+    <t>packet No. errore at the end</t>
+  </si>
+  <si>
+    <t>path No+1</t>
+  </si>
+  <si>
+    <t>midd path No+1</t>
+  </si>
+  <si>
+    <t>number of neighbor in coloring alg</t>
+  </si>
+  <si>
+    <t>rule + rule*2</t>
+  </si>
+  <si>
+    <t>neighbor size</t>
+  </si>
+  <si>
+    <t>monocle</t>
+  </si>
+  <si>
+    <t>midpath +1</t>
+  </si>
+  <si>
+    <t>switch No</t>
+  </si>
+  <si>
+    <t>siwich No+shifing</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>loop detection</t>
+  </si>
+  <si>
+    <t>loop length</t>
+  </si>
+  <si>
+    <t>number of packet</t>
+  </si>
+  <si>
+    <t>number of monitoring rule</t>
+  </si>
+  <si>
+    <t>path length</t>
+  </si>
+  <si>
+    <t>total switch number</t>
+  </si>
+  <si>
+    <t>neighbor apprach</t>
+  </si>
+  <si>
+    <t>sw id apprach</t>
+  </si>
+  <si>
+    <t>SDN Probe</t>
+  </si>
+  <si>
+    <t>compare  neighbor approach with sw id  with 1 neighbor</t>
+  </si>
+  <si>
+    <t>per-rule</t>
+  </si>
+  <si>
+    <t>rule number</t>
+  </si>
+  <si>
+    <t>loop-detection</t>
+  </si>
+  <si>
+    <t>neighbor approach</t>
+  </si>
+  <si>
+    <t>SW id apprach</t>
+  </si>
+  <si>
+    <t>worst case</t>
+  </si>
+  <si>
+    <t>sw id (sequential)</t>
+  </si>
+  <si>
+    <t>sw id (parallel)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> compare the approaches detection failure (no loop) with on neighbor</t>
+  </si>
+  <si>
+    <t>loop-detection worst case</t>
+  </si>
+  <si>
+    <t>topologies with 1 neighbor</t>
+  </si>
+  <si>
+    <t>Sw No.</t>
+  </si>
+  <si>
+    <t>path number</t>
+  </si>
+  <si>
+    <t>test packet number</t>
+  </si>
+  <si>
+    <t>Generating Model time (sec)</t>
+  </si>
+  <si>
+    <t>probing time</t>
+  </si>
+  <si>
+    <t>SDNProbe model generation</t>
+  </si>
+  <si>
+    <t>SDNSPotlight model generation</t>
+  </si>
+  <si>
+    <t>SDNProbe installation rule processing time</t>
+  </si>
+  <si>
+    <t>installation time for 5 neighbor</t>
+  </si>
+  <si>
+    <t>SDNProbe catch rule installation time</t>
+  </si>
+  <si>
+    <t>SDN tracerout approach with 1 neighbor</t>
+  </si>
+  <si>
+    <t>install rule for one</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sdn tracerout approach </t>
+  </si>
+  <si>
+    <t>probe</t>
+  </si>
+  <si>
+    <t>probe for one hop</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -189,9 +326,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,175 +612,1343 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:G14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B3:Q49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C12" workbookViewId="0">
+      <selection activeCell="P40" sqref="P40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="22.83203125" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="12" max="12" width="36.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2.2399999999999998E-3</v>
+      </c>
+      <c r="D4">
+        <v>2.2699999999999999E-3</v>
+      </c>
+      <c r="E4">
+        <v>2.2599999999999999E-3</v>
+      </c>
+      <c r="F4">
+        <v>2.2499999999999998E-3</v>
+      </c>
+      <c r="G4">
+        <v>2.3500000000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>2.5510000000000001E-2</v>
+      </c>
+      <c r="D5">
+        <v>4.8899999999999999E-2</v>
+      </c>
+      <c r="E5">
+        <v>7.7890000000000001E-2</v>
+      </c>
+      <c r="F5">
+        <v>9.9720000000000003E-2</v>
+      </c>
+      <c r="G5">
+        <v>0.12371</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>3.6150000000000002E-2</v>
+      </c>
+      <c r="D6">
+        <v>6.148E-2</v>
+      </c>
+      <c r="E6">
+        <v>8.7580000000000005E-2</v>
+      </c>
+      <c r="F6">
+        <v>0.10281</v>
+      </c>
+      <c r="G6">
+        <v>0.13447000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>2.1199999999999999E-3</v>
+      </c>
+      <c r="D12">
+        <v>2.1700000000000001E-3</v>
+      </c>
+      <c r="E12">
+        <v>2.1800000000000001E-3</v>
+      </c>
+      <c r="F12">
+        <v>1.5E-3</v>
+      </c>
+      <c r="G12">
+        <v>2.15E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>8.7480000000000002E-2</v>
+      </c>
+      <c r="D13">
+        <v>0.17638000000000001</v>
+      </c>
+      <c r="E13">
+        <v>0.29259000000000002</v>
+      </c>
+      <c r="F13">
+        <v>0.32824999999999999</v>
+      </c>
+      <c r="G13">
+        <v>0.42659999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>0.10174</v>
+      </c>
+      <c r="D14">
+        <v>0.19514000000000001</v>
+      </c>
+      <c r="E14">
+        <v>0.30725000000000002</v>
+      </c>
+      <c r="F14">
+        <v>0.34308</v>
+      </c>
+      <c r="G14">
+        <v>0.44446999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="L18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>15</v>
+      </c>
+      <c r="F20">
+        <v>20</v>
+      </c>
+      <c r="G20">
+        <v>25</v>
+      </c>
+      <c r="L20" t="s">
+        <v>51</v>
+      </c>
+      <c r="M20">
+        <v>5</v>
+      </c>
+      <c r="N20">
+        <v>10</v>
+      </c>
+      <c r="O20">
+        <v>15</v>
+      </c>
+      <c r="P20">
+        <v>20</v>
+      </c>
+      <c r="Q20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>30</v>
+      </c>
+      <c r="F21">
+        <v>40</v>
+      </c>
+      <c r="G21">
+        <v>50</v>
+      </c>
+      <c r="L21" t="s">
+        <v>74</v>
+      </c>
+      <c r="M21">
+        <v>9.9705600000000005E-2</v>
+      </c>
+      <c r="N21">
+        <v>0.10323</v>
+      </c>
+      <c r="O21">
+        <v>0.10599699999999999</v>
+      </c>
+      <c r="P21">
+        <v>0.11060780000000001</v>
+      </c>
+      <c r="Q21">
+        <v>0.1107399</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22">
+        <f>C6+C5</f>
+        <v>6.1660000000000006E-2</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ref="D22" si="0">D6+D5</f>
+        <v>0.11038000000000001</v>
+      </c>
+      <c r="E22">
+        <f>E6+E5</f>
+        <v>0.16547000000000001</v>
+      </c>
+      <c r="F22">
+        <f>F6+F5</f>
+        <v>0.20252999999999999</v>
+      </c>
+      <c r="G22">
+        <f>G6+G5</f>
+        <v>0.25818000000000002</v>
+      </c>
+      <c r="L22" t="s">
+        <v>73</v>
+      </c>
+      <c r="M22">
+        <v>0.16147900000000001</v>
+      </c>
+      <c r="N22">
+        <v>0.20612</v>
+      </c>
+      <c r="O22">
+        <v>0.24709600000000001</v>
+      </c>
+      <c r="P22">
+        <v>0.28795999999999999</v>
+      </c>
+      <c r="Q22">
+        <v>0.33906700000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23">
+        <f>C6</f>
+        <v>3.6150000000000002E-2</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ref="D23:G23" si="1">D6</f>
+        <v>6.148E-2</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>8.7580000000000005E-2</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>0.10281</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>0.13447000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24">
+        <v>1.50906801224</v>
+      </c>
+      <c r="D24">
+        <v>1.81562280655</v>
+      </c>
+      <c r="E24">
+        <v>2.5489411354099998</v>
+      </c>
+      <c r="F24">
+        <v>3.0484141353999998</v>
+      </c>
+      <c r="G24">
+        <v>3.4511711597399999</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25">
+        <v>0.33163000000000004</v>
+      </c>
+      <c r="D25">
+        <v>0.71428000000000003</v>
+      </c>
+      <c r="E25">
+        <v>1.09693</v>
+      </c>
+      <c r="F25">
+        <v>1.4795799999999999</v>
+      </c>
+      <c r="G25">
+        <v>1.8622299999999998</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="L26" t="s">
+        <v>51</v>
+      </c>
+      <c r="M26">
+        <v>5</v>
+      </c>
+      <c r="N26">
+        <v>10</v>
+      </c>
+      <c r="O26">
+        <v>15</v>
+      </c>
+      <c r="P26">
+        <v>20</v>
+      </c>
+      <c r="Q26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="L27" t="s">
+        <v>69</v>
+      </c>
+      <c r="M27">
+        <v>471</v>
+      </c>
+      <c r="N27">
+        <v>880</v>
+      </c>
+      <c r="O27">
+        <v>1224</v>
+      </c>
+      <c r="P27">
+        <v>1513</v>
+      </c>
+      <c r="Q27">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28">
+        <v>500</v>
+      </c>
+      <c r="D28">
+        <v>1000</v>
+      </c>
+      <c r="E28">
+        <v>1500</v>
+      </c>
+      <c r="F28">
+        <v>2000</v>
+      </c>
+      <c r="G28">
+        <v>2500</v>
+      </c>
+      <c r="L28" t="s">
+        <v>76</v>
+      </c>
+      <c r="M28">
+        <v>8.7480000000000002E-2</v>
+      </c>
+      <c r="N28">
+        <v>8.7480000000000002E-2</v>
+      </c>
+      <c r="O28">
+        <v>8.7480000000000002E-2</v>
+      </c>
+      <c r="P28">
+        <v>8.7480000000000002E-2</v>
+      </c>
+      <c r="Q28">
+        <v>8.7480000000000002E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29">
+        <v>25.33</v>
+      </c>
+      <c r="D29">
+        <v>51.03</v>
+      </c>
+      <c r="E29">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="F29">
+        <v>103.22</v>
+      </c>
+      <c r="G29">
+        <v>128.13</v>
+      </c>
+      <c r="L29" t="s">
+        <v>77</v>
+      </c>
+      <c r="M29">
+        <f>(M27/5)*M28</f>
+        <v>8.2406160000000011</v>
+      </c>
+      <c r="N29">
+        <f t="shared" ref="N29:Q29" si="2">(N27/5)*N28</f>
+        <v>15.39648</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="2"/>
+        <v>21.415104000000003</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="2"/>
+        <v>26.471448000000002</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="2"/>
+        <v>30.740472</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <v>10</v>
+      </c>
+      <c r="E32">
+        <v>15</v>
+      </c>
+      <c r="F32">
+        <v>20</v>
+      </c>
+      <c r="G32">
+        <v>25</v>
+      </c>
+      <c r="L32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33">
+        <v>4.0009999999999997E-2</v>
+      </c>
+      <c r="D33">
+        <v>6.1199999999999997E-2</v>
+      </c>
+      <c r="E33">
+        <v>9.2039999999999997E-2</v>
+      </c>
+      <c r="F33">
+        <v>0.12015000000000001</v>
+      </c>
+      <c r="G33">
+        <v>0.14380000000000001</v>
+      </c>
+      <c r="M33">
+        <v>5</v>
+      </c>
+      <c r="N33">
+        <v>10</v>
+      </c>
+      <c r="O33">
+        <v>15</v>
+      </c>
+      <c r="P33">
+        <v>20</v>
+      </c>
+      <c r="Q33">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34">
+        <v>0.15081</v>
+      </c>
+      <c r="D34">
+        <v>0.19861000000000001</v>
+      </c>
+      <c r="E34">
+        <v>0.25645000000000001</v>
+      </c>
+      <c r="F34">
+        <v>0.28100999999999998</v>
+      </c>
+      <c r="G34">
+        <v>0.34643000000000002</v>
+      </c>
+      <c r="L34" t="s">
+        <v>79</v>
+      </c>
+      <c r="M34">
+        <v>2.5510000000000001E-2</v>
+      </c>
+      <c r="N34">
+        <v>2.5510000000000001E-2</v>
+      </c>
+      <c r="O34">
+        <v>2.5510000000000001E-2</v>
+      </c>
+      <c r="P34">
+        <v>2.5510000000000001E-2</v>
+      </c>
+      <c r="Q34">
+        <v>2.5510000000000001E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="L35" t="s">
+        <v>82</v>
+      </c>
+      <c r="M35">
+        <v>1.205E-2</v>
+      </c>
+      <c r="N35">
+        <v>1.205E-2</v>
+      </c>
+      <c r="O35">
+        <v>1.205E-2</v>
+      </c>
+      <c r="P35">
+        <v>1.205E-2</v>
+      </c>
+      <c r="Q35">
+        <v>1.205E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="L36" t="s">
+        <v>81</v>
+      </c>
+      <c r="M36">
+        <f>M35*M33</f>
+        <v>6.0249999999999998E-2</v>
+      </c>
+      <c r="N36">
+        <f t="shared" ref="N36:Q36" si="3">N35*N33</f>
+        <v>0.1205</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="3"/>
+        <v>0.18074999999999999</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="3"/>
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="3"/>
+        <v>0.30125000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B37" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="L37" t="s">
+        <v>80</v>
+      </c>
+      <c r="M37">
+        <f>((M33-2)*(3*M34))+(2*(2*M34))+M36</f>
+        <v>0.39188000000000001</v>
+      </c>
+      <c r="N37">
+        <f t="shared" ref="N37:Q37" si="4">((N33-2)*(3*N34))+(2*(2*N34))+N36</f>
+        <v>0.83478000000000008</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="4"/>
+        <v>1.2776799999999999</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="4"/>
+        <v>1.72058</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="4"/>
+        <v>2.1634799999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <v>10</v>
+      </c>
+      <c r="E38">
+        <v>15</v>
+      </c>
+      <c r="F38">
+        <v>20</v>
+      </c>
+      <c r="G38">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39">
+        <v>0.11205</v>
+      </c>
+      <c r="D39">
+        <v>0.39167999999999997</v>
+      </c>
+      <c r="E39">
+        <v>0.84787999999999997</v>
+      </c>
+      <c r="F39">
+        <v>1.46591</v>
+      </c>
+      <c r="G39">
+        <v>2.2764699999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40">
+        <v>6.6250000000000003E-2</v>
+      </c>
+      <c r="D40">
+        <v>0.12567999999999999</v>
+      </c>
+      <c r="E40">
+        <v>0.18998000000000001</v>
+      </c>
+      <c r="F40">
+        <v>0.23710999999999999</v>
+      </c>
+      <c r="G40">
+        <v>0.30457000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41">
+        <v>6.1660000000000006E-2</v>
+      </c>
+      <c r="D41">
+        <v>0.11038000000000001</v>
+      </c>
+      <c r="E41">
+        <v>0.16547000000000001</v>
+      </c>
+      <c r="F41">
+        <v>0.20252999999999999</v>
+      </c>
+      <c r="G41">
+        <v>0.25818000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42">
+        <v>0.33163000000000004</v>
+      </c>
+      <c r="D42">
+        <v>0.71428000000000003</v>
+      </c>
+      <c r="E42">
+        <v>1.09693</v>
+      </c>
+      <c r="F42">
+        <v>1.4795799999999999</v>
+      </c>
+      <c r="G42">
+        <v>1.8622299999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46">
+        <v>5</v>
+      </c>
+      <c r="D46">
+        <v>10</v>
+      </c>
+      <c r="E46">
+        <v>15</v>
+      </c>
+      <c r="F46">
+        <v>20</v>
+      </c>
+      <c r="G46">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47">
+        <v>9.1205999999999995E-2</v>
+      </c>
+      <c r="D47">
+        <v>0.37101600000000001</v>
+      </c>
+      <c r="E47">
+        <v>0.82662599999999997</v>
+      </c>
+      <c r="F47">
+        <v>1.3206359999999999</v>
+      </c>
+      <c r="G47">
+        <v>2.2593459999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48">
+        <v>0.12692000000000001</v>
+      </c>
+      <c r="D48">
+        <v>0.43224000000000001</v>
+      </c>
+      <c r="E48">
+        <v>0.91335999999999995</v>
+      </c>
+      <c r="F48">
+        <v>1.56718</v>
+      </c>
+      <c r="G48">
+        <v>2.3971</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49">
+        <v>8.1119999999999998E-2</v>
+      </c>
+      <c r="D49">
+        <v>0.16624</v>
+      </c>
+      <c r="E49">
+        <v>0.25546000000000002</v>
+      </c>
+      <c r="F49">
+        <v>0.33838000000000001</v>
+      </c>
+      <c r="G49">
+        <v>0.42520000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="L18:Q18"/>
+    <mergeCell ref="L25:Q25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="C4:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C4" sqref="C4:I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
+    <row r="4" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>7.6E-3</v>
+      </c>
+      <c r="E4">
+        <f>F4*C4</f>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F4">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H4">
+        <v>5.1019999999999998E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1.55E-2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E28" si="0">F5*C5</f>
+        <v>1.4E-2</v>
+      </c>
+      <c r="F5">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H5">
+        <v>5.1019999999999998E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>2.2700000000000001E-2</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="F6">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H6">
+        <v>5.1019999999999998E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C7">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D7">
+        <v>3.0099999999999998E-2</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="F7">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H7">
+        <v>5.1019999999999998E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C8">
         <v>5</v>
       </c>
-      <c r="F3" t="s">
+      <c r="D8">
+        <v>3.6400000000000002E-2</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F8">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H8">
+        <v>5.1019999999999998E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C9">
         <v>6</v>
       </c>
-      <c r="G3" t="s">
+      <c r="D9">
+        <v>4.3900000000000002E-2</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="F9">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H9">
+        <v>5.1019999999999998E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C10">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>2.2399999999999998E-3</v>
-      </c>
-      <c r="D4">
-        <v>2.2699999999999999E-3</v>
-      </c>
-      <c r="E4">
-        <v>2.2599999999999999E-3</v>
-      </c>
-      <c r="F4">
-        <v>2.2499999999999998E-3</v>
-      </c>
-      <c r="G4">
-        <v>2.3500000000000001E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>2.5510000000000001E-2</v>
-      </c>
-      <c r="D5">
-        <v>4.8899999999999999E-2</v>
-      </c>
-      <c r="E5">
-        <v>7.7890000000000001E-2</v>
-      </c>
-      <c r="F5">
-        <v>9.0719999999999995E-2</v>
-      </c>
-      <c r="G5">
-        <v>0.12371</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>3.6150000000000002E-2</v>
-      </c>
-      <c r="D6">
-        <v>6.148E-2</v>
-      </c>
-      <c r="E6">
-        <v>8.7580000000000005E-2</v>
-      </c>
-      <c r="F6">
-        <v>0.10281</v>
-      </c>
-      <c r="G6">
-        <v>0.13447000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
+      <c r="D10">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="F10">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H10">
+        <v>5.1019999999999998E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C11">
         <v>8</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11">
+        <v>5.7799999999999997E-2</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="F11">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H11">
+        <v>5.1019999999999998E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C12">
         <v>9</v>
       </c>
-      <c r="E11" t="s">
+      <c r="D12">
+        <v>6.4199999999999993E-2</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>6.3E-2</v>
+      </c>
+      <c r="F12">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H12">
+        <v>5.1019999999999998E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C13">
         <v>10</v>
       </c>
-      <c r="F11" t="s">
+      <c r="D13">
+        <v>7.1199999999999999E-2</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F13">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H13">
+        <v>5.1019999999999998E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C14">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
+      <c r="D14">
+        <v>7.8600000000000003E-2</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="F14">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H14">
+        <v>5.1019999999999998E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C15">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>2.1199999999999999E-3</v>
-      </c>
-      <c r="D12">
-        <v>2.1700000000000001E-3</v>
-      </c>
-      <c r="E12">
-        <v>2.1800000000000001E-3</v>
-      </c>
-      <c r="F12">
-        <v>1.5E-3</v>
-      </c>
-      <c r="G12">
-        <v>2.15E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13">
-        <v>8.7480000000000002E-2</v>
-      </c>
-      <c r="D13">
-        <v>0.17638000000000001</v>
-      </c>
-      <c r="E13">
-        <v>0.29259000000000002</v>
-      </c>
-      <c r="F13">
-        <v>0.32824999999999999</v>
-      </c>
-      <c r="G13">
-        <v>0.42659999999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14">
-        <v>0.10174</v>
-      </c>
-      <c r="D14">
-        <v>0.19514000000000001</v>
-      </c>
-      <c r="E14">
-        <v>0.30725000000000002</v>
-      </c>
-      <c r="F14">
-        <v>0.34308</v>
-      </c>
-      <c r="G14">
-        <v>0.44446999999999998</v>
+      <c r="D15">
+        <v>8.5199999999999998E-2</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="F15">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H15">
+        <v>5.1019999999999998E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <v>13</v>
+      </c>
+      <c r="D16">
+        <v>9.2700000000000005E-2</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="F16">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H16">
+        <v>5.1019999999999998E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <v>14</v>
+      </c>
+      <c r="D17">
+        <v>0.1024</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="F17">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H17">
+        <v>5.1019999999999998E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <v>15</v>
+      </c>
+      <c r="D18">
+        <v>0.1065</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>0.105</v>
+      </c>
+      <c r="F18">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H18">
+        <v>5.1019999999999998E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <v>16</v>
+      </c>
+      <c r="D19">
+        <v>0.1134</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>0.112</v>
+      </c>
+      <c r="F19">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H19">
+        <v>5.1019999999999998E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <v>17</v>
+      </c>
+      <c r="D20">
+        <v>0.12089999999999999</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>0.11900000000000001</v>
+      </c>
+      <c r="F20">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H20">
+        <v>5.1019999999999998E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <v>18</v>
+      </c>
+      <c r="D21">
+        <v>0.12770000000000001</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>0.126</v>
+      </c>
+      <c r="F21">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H21">
+        <v>5.1019999999999998E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <v>19</v>
+      </c>
+      <c r="D22">
+        <v>0.1343</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="F22">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H22">
+        <v>5.1019999999999998E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <v>20</v>
+      </c>
+      <c r="D23">
+        <v>0.14180000000000001</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F23">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H23">
+        <v>5.1019999999999998E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <v>21</v>
+      </c>
+      <c r="D24">
+        <v>0.14879999999999999</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="F24">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H24">
+        <v>5.1019999999999998E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <v>22</v>
+      </c>
+      <c r="D25">
+        <v>0.15590000000000001</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>0.154</v>
+      </c>
+      <c r="F25">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H25">
+        <v>5.1019999999999998E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <v>23</v>
+      </c>
+      <c r="D26">
+        <v>0.1623</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>0.161</v>
+      </c>
+      <c r="F26">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H26">
+        <v>5.1019999999999998E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C27">
+        <v>24</v>
+      </c>
+      <c r="D27">
+        <v>0.1701</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="F27">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H27">
+        <v>5.1019999999999998E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C28">
+        <v>25</v>
+      </c>
+      <c r="D28">
+        <v>0.17680000000000001</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>0.17500000000000002</v>
+      </c>
+      <c r="F28">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H28">
+        <v>5.1019999999999998E-3</v>
       </c>
     </row>
   </sheetData>
@@ -648,324 +1957,551 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:O51"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B3:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K8" sqref="K8:P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="11" max="11" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="O3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="O4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>14</v>
       </c>
       <c r="D5">
         <v>1.2691900000000001E-2</v>
       </c>
-      <c r="O5" t="s">
+      <c r="K5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" t="s">
+        <v>68</v>
+      </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="M6">
+        <v>10</v>
+      </c>
+      <c r="N6">
+        <v>15</v>
+      </c>
+      <c r="O6">
+        <v>20</v>
+      </c>
+      <c r="P6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="K7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L7">
+        <v>500</v>
+      </c>
+      <c r="M7">
+        <v>1000</v>
+      </c>
+      <c r="N7">
+        <v>1500</v>
+      </c>
+      <c r="O7">
+        <v>2000</v>
+      </c>
+      <c r="P7" s="1">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="O7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>33</v>
       </c>
       <c r="D8">
         <v>1.9350099999999999E-2</v>
       </c>
-      <c r="O8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="K8" t="s">
+        <v>69</v>
+      </c>
+      <c r="L8">
+        <v>471</v>
+      </c>
+      <c r="M8">
+        <v>880</v>
+      </c>
+      <c r="N8">
+        <v>1224</v>
+      </c>
+      <c r="O8">
+        <v>1513</v>
+      </c>
+      <c r="P8">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D9">
         <v>1.2330900000000001E-2</v>
       </c>
-      <c r="O9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="K9" t="s">
+        <v>70</v>
+      </c>
+      <c r="L9">
+        <v>471</v>
+      </c>
+      <c r="M9">
+        <v>880</v>
+      </c>
+      <c r="N9">
+        <v>1224</v>
+      </c>
+      <c r="O9">
+        <v>1513</v>
+      </c>
+      <c r="P9">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D10">
         <v>1.42536E-2</v>
       </c>
-      <c r="O10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="K10" t="s">
+        <v>71</v>
+      </c>
+      <c r="L10">
+        <v>0.16147900000000001</v>
+      </c>
+      <c r="M10">
+        <v>0.20612</v>
+      </c>
+      <c r="N10">
+        <v>0.24709600000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.28795999999999999</v>
+      </c>
+      <c r="P10">
+        <v>0.33906700000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D11">
         <v>5.9142300000000004E-3</v>
       </c>
-      <c r="O11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="K11" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11">
+        <v>1.50906801224</v>
+      </c>
+      <c r="M11">
+        <v>1.81562280655</v>
+      </c>
+      <c r="N11">
+        <v>2.5489411354099998</v>
+      </c>
+      <c r="O11">
+        <v>3.0484141353999998</v>
+      </c>
+      <c r="P11">
+        <v>3.4511711597399999</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D12">
         <v>8.4035399999999993E-3</v>
       </c>
-      <c r="O12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D13">
         <f>D5+D8</f>
         <v>3.2042000000000001E-2</v>
       </c>
-      <c r="O13" t="s">
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="O14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>40</v>
-      </c>
-      <c r="O15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>38</v>
-      </c>
-      <c r="O16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="O18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C20" s="1">
         <v>8.0420000000000005E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C21">
         <v>6.9599999999999995E-2</v>
       </c>
-      <c r="O21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C22">
         <v>7.1919999999999998E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C23">
         <v>0.11322</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C24">
         <v>6.9400000000000003E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C25">
         <v>9.8150000000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C26" s="1">
         <v>7.3899999999999993E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C27">
         <v>0.12537999999999999</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C28">
         <v>6.6290000000000002E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C29" s="1">
         <v>6.096E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C30">
         <v>8.3140000000000006E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C31" s="1">
         <v>6.8400000000000002E-2</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C32">
         <v>6.4420000000000005E-2</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C33">
         <v>6.7909999999999998E-2</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C34">
         <v>6.0780000000000001E-2</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C35">
         <v>6.7400000000000002E-2</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C36" s="1">
         <v>6.5640000000000004E-2</v>
       </c>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C37">
         <v>9.9930000000000005E-2</v>
       </c>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C38">
         <v>6.8669999999999995E-2</v>
       </c>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="K38" s="2"/>
+    </row>
+    <row r="39" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C39">
         <v>7.2789999999999994E-2</v>
       </c>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C40">
         <v>7.077E-2</v>
       </c>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C41">
         <v>7.1779999999999997E-2</v>
       </c>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C42">
         <v>0.10804999999999999</v>
       </c>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C43">
         <v>6.9529999999999995E-2</v>
       </c>
     </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C44">
         <v>8.1189999999999998E-2</v>
       </c>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C45">
         <v>7.4399999999999994E-2</v>
       </c>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C46">
         <v>6.7729999999999999E-2</v>
       </c>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C47">
         <v>8.0850000000000005E-2</v>
       </c>
     </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C48">
         <v>0.11828</v>
       </c>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C49">
         <v>9.3960000000000002E-2</v>
       </c>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C50">
         <v>9.2450000000000004E-2</v>
       </c>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C51">
         <f>AVERAGE(C20:C50)</f>
         <v>7.9913225806451604E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K5:P5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="B4:I16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="3" max="3" width="35" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="6" width="27.1640625" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" customWidth="1"/>
+    <col min="9" max="9" width="17.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -975,6 +2511,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B0D7D36275C6824D9577E84F31303507" ma:contentTypeVersion="8" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="d1c6f779633cbe19992cb45cae5c12e4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="66be6807-d3c2-44aa-b56e-5889536f4f82" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4df56a45b157f6a3f441e35f37a3595a" ns3:_="">
     <xsd:import namespace="66be6807-d3c2-44aa-b56e-5889536f4f82"/>
@@ -1144,22 +2695,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F86F0C1A-A8A8-4134-BC5E-A0E6B4D13955}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B47F718-7700-45D2-8533-0C0D95D2477F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="66be6807-d3c2-44aa-b56e-5889536f4f82"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75611216-3059-4747-AABA-E5E1E65111FA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1175,28 +2735,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F86F0C1A-A8A8-4134-BC5E-A0E6B4D13955}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B47F718-7700-45D2-8533-0C0D95D2477F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="66be6807-d3c2-44aa-b56e-5889536f4f82"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/evaluationResult.xlsx
+++ b/evaluationResult.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uio-my.sharepoint.com/personal/ramtina_uio_no/Documents/Evaluation/InjectPacket-extend-Frode work/traceroute/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{A357B6EB-BEE6-794E-BF34-4EB57A589830}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8FB05FEC-BBDC-3548-8F11-06F4DFCCCEDC}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14685"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="SDNProbe" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,32 +35,104 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+  <si>
+    <t>traceroute</t>
+  </si>
+  <si>
+    <t>sdnProbe</t>
+  </si>
+  <si>
+    <t>ndb</t>
+  </si>
+  <si>
+    <t>monocle</t>
+  </si>
+  <si>
+    <t>spotlight-neighbor</t>
+  </si>
+  <si>
+    <t>spotlight-all</t>
+  </si>
+  <si>
+    <t>spotlight-tracerout</t>
+  </si>
+  <si>
+    <t>packet No. with no error</t>
+  </si>
+  <si>
+    <t>path No+1</t>
+  </si>
+  <si>
+    <t>packet No. errore in middle</t>
+  </si>
+  <si>
+    <t>midd path No+1</t>
+  </si>
+  <si>
+    <t>midpath +1</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>packet No. errore at the end</t>
+  </si>
+  <si>
+    <t>monitoring rule No.</t>
+  </si>
+  <si>
+    <t>number of neighbor in coloring alg</t>
+  </si>
+  <si>
+    <t>rule + rule*2</t>
+  </si>
+  <si>
+    <t>neighbor size</t>
+  </si>
+  <si>
+    <t>switch No</t>
+  </si>
+  <si>
+    <t>siwich No+shifing</t>
+  </si>
+  <si>
+    <t>loop detection</t>
+  </si>
+  <si>
+    <t>loop length</t>
+  </si>
+  <si>
+    <t>number of packet</t>
+  </si>
+  <si>
+    <t>number of monitoring rule</t>
+  </si>
   <si>
     <t>Length 5</t>
   </si>
   <si>
+    <t>Length 10</t>
+  </si>
+  <si>
+    <t>Length 15</t>
+  </si>
+  <si>
+    <t>Length 20</t>
+  </si>
+  <si>
+    <t>Length 25</t>
+  </si>
+  <si>
     <t>packet Gen</t>
   </si>
   <si>
+    <t>Catch-Rule Instalation</t>
+  </si>
+  <si>
     <t>on link</t>
   </si>
   <si>
-    <t>Catch-Rule Instalation</t>
-  </si>
-  <si>
-    <t>Length 10</t>
-  </si>
-  <si>
-    <t>Length 15</t>
-  </si>
-  <si>
-    <t>Length 20</t>
-  </si>
-  <si>
-    <t>Length 25</t>
-  </si>
-  <si>
     <t>Neighbor 5</t>
   </si>
   <si>
@@ -75,220 +148,175 @@
     <t>Neighbor 25</t>
   </si>
   <si>
+    <t>compare  neighbor approach with sw id  with 1 neighbor</t>
+  </si>
+  <si>
+    <t>path length</t>
+  </si>
+  <si>
+    <t>total switch number</t>
+  </si>
+  <si>
+    <t>SDNSPotlight model generation</t>
+  </si>
+  <si>
+    <t>neighbor apprach</t>
+  </si>
+  <si>
+    <t>SDNProbe model generation</t>
+  </si>
+  <si>
+    <t>sw id apprach</t>
+  </si>
+  <si>
+    <t>SDN Probe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sdn tracerout approach </t>
+  </si>
+  <si>
+    <t>SDNProbe installation rule processing time</t>
+  </si>
+  <si>
+    <t>path number</t>
+  </si>
+  <si>
+    <t>rule number</t>
+  </si>
+  <si>
+    <t>installation time for 5 neighbor</t>
+  </si>
+  <si>
+    <t>per-rule</t>
+  </si>
+  <si>
+    <t>SDNProbe catch rule installation time</t>
+  </si>
+  <si>
+    <t>loop-detection</t>
+  </si>
+  <si>
+    <t>SDN tracerout approach with 1 neighbor</t>
+  </si>
+  <si>
+    <t>neighbor approach</t>
+  </si>
+  <si>
+    <t>SW id apprach</t>
+  </si>
+  <si>
+    <t>install rule for one</t>
+  </si>
+  <si>
+    <t>probe for one hop</t>
+  </si>
+  <si>
+    <t>probe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> compare the approaches detection failure (no loop) with one neighbor</t>
+  </si>
+  <si>
+    <t>worst case</t>
+  </si>
+  <si>
+    <t>sw id (sequential)</t>
+  </si>
+  <si>
+    <t>sw id (parallel)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Overhead of the approaches detection failure (no loop) with one neighbor</t>
+  </si>
+  <si>
+    <t>switch No.</t>
+  </si>
+  <si>
+    <t>packet No. (probe&amp; rule Installation)neighbor approach</t>
+  </si>
+  <si>
+    <t>packet No. (probe&amp; rule Installation) sw id (sequential)</t>
+  </si>
+  <si>
+    <t>packet No. (probe&amp; rule Installation) sw id (parallel)</t>
+  </si>
+  <si>
+    <t>loop-detection worst case</t>
+  </si>
+  <si>
+    <t>direct installation</t>
+  </si>
+  <si>
+    <t>logical channel delay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overhead of the loop-detection worst case </t>
+  </si>
+  <si>
     <t>My Code</t>
   </si>
   <si>
     <t>query</t>
   </si>
   <si>
+    <t>topologies with 1 neighbor</t>
+  </si>
+  <si>
     <t xml:space="preserve">query size: </t>
   </si>
   <si>
     <t>31 ???</t>
   </si>
   <si>
+    <t>Sw No.</t>
+  </si>
+  <si>
     <t xml:space="preserve">probe from sw_1 </t>
   </si>
   <si>
     <t>probe from sw_2</t>
   </si>
   <si>
+    <t>test packet number</t>
+  </si>
+  <si>
     <t>probe from sw_3</t>
   </si>
   <si>
+    <t>Generating Model time (sec)</t>
+  </si>
+  <si>
     <t>probe from sw_4</t>
   </si>
   <si>
+    <t>probing time</t>
+  </si>
+  <si>
     <t>probe from sw_5</t>
   </si>
   <si>
+    <t xml:space="preserve">Total model generating (query + probe) : </t>
+  </si>
+  <si>
+    <t>packet generation   0.00224 sec</t>
+  </si>
+  <si>
     <t>CATCH-RULE INSTALLATION TIME:  0.01955</t>
   </si>
   <si>
     <t>TIME ON LINK:  0.02685</t>
   </si>
   <si>
-    <t>packet generation   0.00224 sec</t>
-  </si>
-  <si>
     <t>total time for 34 packets :</t>
   </si>
   <si>
-    <t xml:space="preserve">Total model generating (query + probe) : </t>
-  </si>
-  <si>
-    <t>traceroute</t>
-  </si>
-  <si>
-    <t>sdnProbe</t>
-  </si>
-  <si>
-    <t>ndb</t>
-  </si>
-  <si>
-    <t>spotlight-neighbor</t>
-  </si>
-  <si>
-    <t>spotlight-all</t>
-  </si>
-  <si>
-    <t>spotlight-tracerout</t>
-  </si>
-  <si>
-    <t>monitoring rule No.</t>
-  </si>
-  <si>
-    <t>packet No. with no error</t>
-  </si>
-  <si>
-    <t>packet No. errore in middle</t>
-  </si>
-  <si>
-    <t>packet No. errore at the end</t>
-  </si>
-  <si>
-    <t>path No+1</t>
-  </si>
-  <si>
-    <t>midd path No+1</t>
-  </si>
-  <si>
-    <t>number of neighbor in coloring alg</t>
-  </si>
-  <si>
-    <t>rule + rule*2</t>
-  </si>
-  <si>
-    <t>neighbor size</t>
-  </si>
-  <si>
-    <t>monocle</t>
-  </si>
-  <si>
-    <t>midpath +1</t>
-  </si>
-  <si>
-    <t>switch No</t>
-  </si>
-  <si>
-    <t>siwich No+shifing</t>
-  </si>
-  <si>
-    <t>???</t>
-  </si>
-  <si>
-    <t>loop detection</t>
-  </si>
-  <si>
-    <t>loop length</t>
-  </si>
-  <si>
-    <t>number of packet</t>
-  </si>
-  <si>
-    <t>number of monitoring rule</t>
-  </si>
-  <si>
-    <t>path length</t>
-  </si>
-  <si>
-    <t>total switch number</t>
-  </si>
-  <si>
-    <t>neighbor apprach</t>
-  </si>
-  <si>
-    <t>sw id apprach</t>
-  </si>
-  <si>
-    <t>SDN Probe</t>
-  </si>
-  <si>
-    <t>compare  neighbor approach with sw id  with 1 neighbor</t>
-  </si>
-  <si>
-    <t>per-rule</t>
-  </si>
-  <si>
-    <t>rule number</t>
-  </si>
-  <si>
-    <t>loop-detection</t>
-  </si>
-  <si>
-    <t>neighbor approach</t>
-  </si>
-  <si>
-    <t>SW id apprach</t>
-  </si>
-  <si>
-    <t>worst case</t>
-  </si>
-  <si>
-    <t>sw id (sequential)</t>
-  </si>
-  <si>
-    <t>sw id (parallel)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> compare the approaches detection failure (no loop) with on neighbor</t>
-  </si>
-  <si>
-    <t>loop-detection worst case</t>
-  </si>
-  <si>
-    <t>topologies with 1 neighbor</t>
-  </si>
-  <si>
-    <t>Sw No.</t>
-  </si>
-  <si>
-    <t>path number</t>
-  </si>
-  <si>
-    <t>test packet number</t>
-  </si>
-  <si>
-    <t>Generating Model time (sec)</t>
-  </si>
-  <si>
-    <t>probing time</t>
-  </si>
-  <si>
-    <t>SDNProbe model generation</t>
-  </si>
-  <si>
-    <t>SDNSPotlight model generation</t>
-  </si>
-  <si>
-    <t>SDNProbe installation rule processing time</t>
-  </si>
-  <si>
-    <t>installation time for 5 neighbor</t>
-  </si>
-  <si>
-    <t>SDNProbe catch rule installation time</t>
-  </si>
-  <si>
-    <t>SDN tracerout approach with 1 neighbor</t>
-  </si>
-  <si>
-    <t>install rule for one</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sdn tracerout approach </t>
-  </si>
-  <si>
-    <t>probe</t>
-  </si>
-  <si>
-    <t>probe for one hop</t>
+    <t>SDNProbe probe packet No.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -612,44 +640,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:Q49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:Q63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C12" workbookViewId="0">
-      <selection activeCell="P40" sqref="P40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30:Q30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.83203125" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="6" width="14.5" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" customWidth="1"/>
-    <col min="12" max="12" width="36.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="36.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C4">
         <v>2.2399999999999998E-3</v>
@@ -667,9 +695,9 @@
         <v>2.3500000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C5">
         <v>2.5510000000000001E-2</v>
@@ -687,9 +715,9 @@
         <v>0.12371</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="C6">
         <v>3.6150000000000002E-2</v>
@@ -707,26 +735,26 @@
         <v>0.13447000000000001</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C12">
         <v>2.1199999999999999E-3</v>
@@ -744,9 +772,9 @@
         <v>2.15E-3</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C13">
         <v>8.7480000000000002E-2</v>
@@ -764,9 +792,9 @@
         <v>0.42659999999999998</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="C14">
         <v>0.10174</v>
@@ -784,9 +812,9 @@
         <v>0.44446999999999998</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -794,7 +822,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="L18" s="3" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
@@ -802,9 +830,9 @@
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -822,7 +850,7 @@
         <v>25</v>
       </c>
       <c r="L20" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="M20">
         <v>5</v>
@@ -840,9 +868,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C21">
         <v>10</v>
@@ -860,7 +888,7 @@
         <v>50</v>
       </c>
       <c r="L21" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="M21">
         <v>9.9705600000000005E-2</v>
@@ -878,9 +906,9 @@
         <v>0.1107399</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C22">
         <f>C6+C5</f>
@@ -903,7 +931,7 @@
         <v>0.25818000000000002</v>
       </c>
       <c r="L22" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="M22">
         <v>0.16147900000000001</v>
@@ -921,9 +949,9 @@
         <v>0.33906700000000001</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C23">
         <f>C6</f>
@@ -946,9 +974,9 @@
         <v>0.13447000000000001</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C24">
         <v>1.50906801224</v>
@@ -966,9 +994,9 @@
         <v>3.4511711597399999</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="C25">
         <v>0.33163000000000004</v>
@@ -986,7 +1014,7 @@
         <v>1.8622299999999998</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
@@ -994,9 +1022,9 @@
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="L26" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="M26">
         <v>5</v>
@@ -1014,9 +1042,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="L27" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="M27">
         <v>471</v>
@@ -1034,9 +1062,9 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C28">
         <v>500</v>
@@ -1054,7 +1082,7 @@
         <v>2500</v>
       </c>
       <c r="L28" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="M28">
         <v>8.7480000000000002E-2</v>
@@ -1072,9 +1100,9 @@
         <v>8.7480000000000002E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C29">
         <v>25.33</v>
@@ -1092,7 +1120,7 @@
         <v>128.13</v>
       </c>
       <c r="L29" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="M29">
         <f>(M27/5)*M28</f>
@@ -1115,14 +1143,39 @@
         <v>30.740472</v>
       </c>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="L30" t="s">
+        <v>91</v>
+      </c>
+      <c r="M30">
+        <f>M27*3</f>
+        <v>1413</v>
+      </c>
+      <c r="N30">
+        <f t="shared" ref="N30:Q30" si="3">N27*3</f>
+        <v>2640</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="3"/>
+        <v>3672</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="3"/>
+        <v>4539</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="3"/>
+        <v>5271</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -1140,12 +1193,12 @@
         <v>25</v>
       </c>
       <c r="L32" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C33">
         <v>4.0009999999999997E-2</v>
@@ -1178,9 +1231,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C34">
         <v>0.15081</v>
@@ -1198,7 +1251,7 @@
         <v>0.34643000000000002</v>
       </c>
       <c r="L34" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="M34">
         <v>2.5510000000000001E-2</v>
@@ -1216,9 +1269,9 @@
         <v>2.5510000000000001E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
       <c r="L35" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="M35">
         <v>1.205E-2</v>
@@ -1236,34 +1289,34 @@
         <v>1.205E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
       <c r="L36" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="M36">
         <f>M35*M33</f>
         <v>6.0249999999999998E-2</v>
       </c>
       <c r="N36">
-        <f t="shared" ref="N36:Q36" si="3">N35*N33</f>
+        <f t="shared" ref="N36:Q36" si="4">N35*N33</f>
         <v>0.1205</v>
       </c>
       <c r="O36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.18074999999999999</v>
       </c>
       <c r="P36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.24099999999999999</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.30125000000000002</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -1271,32 +1324,32 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="L37" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="M37">
         <f>((M33-2)*(3*M34))+(2*(2*M34))+M36</f>
         <v>0.39188000000000001</v>
       </c>
       <c r="N37">
-        <f t="shared" ref="N37:Q37" si="4">((N33-2)*(3*N34))+(2*(2*N34))+N36</f>
+        <f t="shared" ref="N37:Q37" si="5">((N33-2)*(3*N34))+(2*(2*N34))+N36</f>
         <v>0.83478000000000008</v>
       </c>
       <c r="O37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2776799999999999</v>
       </c>
       <c r="P37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.72058</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.1634799999999998</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C38">
         <v>5</v>
@@ -1314,9 +1367,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C39">
         <v>0.11205</v>
@@ -1334,9 +1387,9 @@
         <v>2.2764699999999998</v>
       </c>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C40">
         <v>6.6250000000000003E-2</v>
@@ -1354,9 +1407,9 @@
         <v>0.30457000000000001</v>
       </c>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C41">
         <v>6.1660000000000006E-2</v>
@@ -1374,9 +1427,9 @@
         <v>0.25818000000000002</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="C42">
         <v>0.33163000000000004</v>
@@ -1394,14 +1447,19 @@
         <v>1.8622299999999998</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B45" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -1419,72 +1477,324 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C47">
+        <v>6</v>
+      </c>
+      <c r="D47">
+        <v>11</v>
+      </c>
+      <c r="E47">
+        <v>16</v>
+      </c>
+      <c r="F47">
+        <v>21</v>
+      </c>
+      <c r="G47">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48">
+        <v>5</v>
+      </c>
+      <c r="D48">
+        <v>10</v>
+      </c>
+      <c r="E48">
+        <v>15</v>
+      </c>
+      <c r="F48">
+        <v>20</v>
+      </c>
+      <c r="G48">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+      <c r="D49">
+        <v>10</v>
+      </c>
+      <c r="E49">
+        <v>15</v>
+      </c>
+      <c r="F49">
+        <v>20</v>
+      </c>
+      <c r="G49">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50">
+        <f>3*(C46-2)+4+2*(C46)</f>
+        <v>23</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ref="D50:G50" si="6">3*(D46-2)+4+2*(D46)</f>
+        <v>48</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="6"/>
+        <v>73</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="6"/>
+        <v>98</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="6"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>68</v>
+      </c>
+      <c r="M52">
+        <v>5</v>
+      </c>
+      <c r="N52">
+        <v>10</v>
+      </c>
+      <c r="O52">
+        <v>15</v>
+      </c>
+      <c r="P52">
+        <v>20</v>
+      </c>
+      <c r="Q52">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53">
+        <v>5</v>
+      </c>
+      <c r="D53">
+        <v>10</v>
+      </c>
+      <c r="E53">
+        <v>15</v>
+      </c>
+      <c r="F53">
+        <v>20</v>
+      </c>
+      <c r="G53">
+        <v>25</v>
+      </c>
+      <c r="L53" t="s">
+        <v>69</v>
+      </c>
+      <c r="M53">
+        <v>8.7480000000000002E-2</v>
+      </c>
+      <c r="N53">
+        <v>0.17638000000000001</v>
+      </c>
+      <c r="O53">
+        <v>0.29259000000000002</v>
+      </c>
+      <c r="P53">
+        <v>0.32824999999999999</v>
+      </c>
+      <c r="Q53">
+        <v>0.42659999999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54">
         <v>9.1205999999999995E-2</v>
       </c>
-      <c r="D47">
+      <c r="D54">
         <v>0.37101600000000001</v>
       </c>
-      <c r="E47">
+      <c r="E54">
         <v>0.82662599999999997</v>
       </c>
-      <c r="F47">
+      <c r="F54">
         <v>1.3206359999999999</v>
       </c>
-      <c r="G47">
+      <c r="G54">
         <v>2.2593459999999999</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
-        <v>63</v>
-      </c>
-      <c r="C48">
+      <c r="L54" t="s">
+        <v>70</v>
+      </c>
+      <c r="M54">
+        <v>3.6150000000000002E-2</v>
+      </c>
+      <c r="N54">
+        <v>6.148E-2</v>
+      </c>
+      <c r="O54">
+        <v>8.7580000000000005E-2</v>
+      </c>
+      <c r="P54">
+        <v>0.10281</v>
+      </c>
+      <c r="Q54">
+        <v>0.13447000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55">
         <v>0.12692000000000001</v>
       </c>
-      <c r="D48">
+      <c r="D55">
         <v>0.43224000000000001</v>
       </c>
-      <c r="E48">
+      <c r="E55">
         <v>0.91335999999999995</v>
       </c>
-      <c r="F48">
+      <c r="F55">
         <v>1.56718</v>
       </c>
-      <c r="G48">
+      <c r="G55">
         <v>2.3971</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
-        <v>64</v>
-      </c>
-      <c r="C49">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>62</v>
+      </c>
+      <c r="C56">
         <v>8.1119999999999998E-2</v>
       </c>
-      <c r="D49">
+      <c r="D56">
         <v>0.16624</v>
       </c>
-      <c r="E49">
+      <c r="E56">
         <v>0.25546000000000002</v>
       </c>
-      <c r="F49">
+      <c r="F56">
         <v>0.33838000000000001</v>
       </c>
-      <c r="G49">
+      <c r="G56">
         <v>0.42520000000000002</v>
       </c>
     </row>
+    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>21</v>
+      </c>
+      <c r="C60">
+        <v>5</v>
+      </c>
+      <c r="D60">
+        <v>10</v>
+      </c>
+      <c r="E60">
+        <v>15</v>
+      </c>
+      <c r="F60">
+        <v>20</v>
+      </c>
+      <c r="G60">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61">
+        <f>4*C60-2</f>
+        <v>18</v>
+      </c>
+      <c r="D61">
+        <f t="shared" ref="D61:G61" si="7">4*D60-2</f>
+        <v>38</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="7"/>
+        <v>58</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="7"/>
+        <v>78</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="7"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62">
+        <v>6</v>
+      </c>
+      <c r="D62">
+        <v>11</v>
+      </c>
+      <c r="E62">
+        <v>16</v>
+      </c>
+      <c r="F62">
+        <v>21</v>
+      </c>
+      <c r="G62">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C63">
+        <v>6</v>
+      </c>
+      <c r="D63">
+        <v>11</v>
+      </c>
+      <c r="E63">
+        <v>16</v>
+      </c>
+      <c r="F63">
+        <v>21</v>
+      </c>
+      <c r="G63">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="B37:G37"/>
     <mergeCell ref="L18:Q18"/>
     <mergeCell ref="L25:Q25"/>
+    <mergeCell ref="B45:G45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1492,16 +1802,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:I30"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>1</v>
       </c>
@@ -1519,7 +1829,7 @@
         <v>5.1019999999999998E-3</v>
       </c>
     </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>2</v>
       </c>
@@ -1537,7 +1847,7 @@
         <v>5.1019999999999998E-3</v>
       </c>
     </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>3</v>
       </c>
@@ -1555,7 +1865,7 @@
         <v>5.1019999999999998E-3</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>4</v>
       </c>
@@ -1573,7 +1883,7 @@
         <v>5.1019999999999998E-3</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>5</v>
       </c>
@@ -1591,7 +1901,7 @@
         <v>5.1019999999999998E-3</v>
       </c>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>6</v>
       </c>
@@ -1609,7 +1919,7 @@
         <v>5.1019999999999998E-3</v>
       </c>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>7</v>
       </c>
@@ -1627,7 +1937,7 @@
         <v>5.1019999999999998E-3</v>
       </c>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>8</v>
       </c>
@@ -1645,7 +1955,7 @@
         <v>5.1019999999999998E-3</v>
       </c>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>9</v>
       </c>
@@ -1663,7 +1973,7 @@
         <v>5.1019999999999998E-3</v>
       </c>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>10</v>
       </c>
@@ -1681,7 +1991,7 @@
         <v>5.1019999999999998E-3</v>
       </c>
     </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>11</v>
       </c>
@@ -1699,7 +2009,7 @@
         <v>5.1019999999999998E-3</v>
       </c>
     </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C15">
         <v>12</v>
       </c>
@@ -1717,7 +2027,7 @@
         <v>5.1019999999999998E-3</v>
       </c>
     </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C16">
         <v>13</v>
       </c>
@@ -1735,7 +2045,7 @@
         <v>5.1019999999999998E-3</v>
       </c>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C17">
         <v>14</v>
       </c>
@@ -1753,7 +2063,7 @@
         <v>5.1019999999999998E-3</v>
       </c>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C18">
         <v>15</v>
       </c>
@@ -1771,7 +2081,7 @@
         <v>5.1019999999999998E-3</v>
       </c>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>16</v>
       </c>
@@ -1789,7 +2099,7 @@
         <v>5.1019999999999998E-3</v>
       </c>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>17</v>
       </c>
@@ -1807,7 +2117,7 @@
         <v>5.1019999999999998E-3</v>
       </c>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C21">
         <v>18</v>
       </c>
@@ -1825,7 +2135,7 @@
         <v>5.1019999999999998E-3</v>
       </c>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C22">
         <v>19</v>
       </c>
@@ -1843,7 +2153,7 @@
         <v>5.1019999999999998E-3</v>
       </c>
     </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C23">
         <v>20</v>
       </c>
@@ -1861,7 +2171,7 @@
         <v>5.1019999999999998E-3</v>
       </c>
     </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C24">
         <v>21</v>
       </c>
@@ -1879,7 +2189,7 @@
         <v>5.1019999999999998E-3</v>
       </c>
     </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C25">
         <v>22</v>
       </c>
@@ -1897,7 +2207,7 @@
         <v>5.1019999999999998E-3</v>
       </c>
     </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C26">
         <v>23</v>
       </c>
@@ -1915,7 +2225,7 @@
         <v>5.1019999999999998E-3</v>
       </c>
     </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C27">
         <v>24</v>
       </c>
@@ -1933,7 +2243,7 @@
         <v>5.1019999999999998E-3</v>
       </c>
     </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C28">
         <v>25</v>
       </c>
@@ -1958,33 +2268,33 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:P51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8:P8"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="11" max="11" width="29.5" customWidth="1"/>
+    <col min="11" max="11" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="D5">
         <v>1.2691900000000001E-2</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -1992,15 +2302,15 @@
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="L6">
         <v>5</v>
@@ -2018,9 +2328,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="K7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="L7">
         <v>500</v>
@@ -2038,15 +2348,15 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="D8">
         <v>1.9350099999999999E-2</v>
       </c>
       <c r="K8" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="L8">
         <v>471</v>
@@ -2064,15 +2374,15 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="D9">
         <v>1.2330900000000001E-2</v>
       </c>
       <c r="K9" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="L9">
         <v>471</v>
@@ -2090,15 +2400,15 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="D10">
         <v>1.42536E-2</v>
       </c>
       <c r="K10" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="L10">
         <v>0.16147900000000001</v>
@@ -2116,15 +2426,15 @@
         <v>0.33906700000000001</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="D11">
         <v>5.9142300000000004E-3</v>
       </c>
       <c r="K11" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="L11">
         <v>1.50906801224</v>
@@ -2142,200 +2452,200 @@
         <v>3.4511711597399999</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="D12">
         <v>8.4035399999999993E-3</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="D13">
         <f>D5+D8</f>
         <v>3.2042000000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C20" s="1">
         <v>8.0420000000000005E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C21">
         <v>6.9599999999999995E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22">
         <v>7.1919999999999998E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C23">
         <v>0.11322</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C24">
         <v>6.9400000000000003E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C25">
         <v>9.8150000000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C26" s="1">
         <v>7.3899999999999993E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C27">
         <v>0.12537999999999999</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C28">
         <v>6.6290000000000002E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C29" s="1">
         <v>6.096E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C30">
         <v>8.3140000000000006E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C31" s="1">
         <v>6.8400000000000002E-2</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C32">
         <v>6.4420000000000005E-2</v>
       </c>
     </row>
-    <row r="33" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C33">
         <v>6.7909999999999998E-2</v>
       </c>
     </row>
-    <row r="34" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C34">
         <v>6.0780000000000001E-2</v>
       </c>
     </row>
-    <row r="35" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C35">
         <v>6.7400000000000002E-2</v>
       </c>
     </row>
-    <row r="36" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C36" s="1">
         <v>6.5640000000000004E-2</v>
       </c>
     </row>
-    <row r="37" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C37">
         <v>9.9930000000000005E-2</v>
       </c>
     </row>
-    <row r="38" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C38">
         <v>6.8669999999999995E-2</v>
       </c>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C39">
         <v>7.2789999999999994E-2</v>
       </c>
     </row>
-    <row r="40" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C40">
         <v>7.077E-2</v>
       </c>
     </row>
-    <row r="41" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C41">
         <v>7.1779999999999997E-2</v>
       </c>
     </row>
-    <row r="42" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C42">
         <v>0.10804999999999999</v>
       </c>
     </row>
-    <row r="43" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C43">
         <v>6.9529999999999995E-2</v>
       </c>
     </row>
-    <row r="44" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C44">
         <v>8.1189999999999998E-2</v>
       </c>
     </row>
-    <row r="45" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C45">
         <v>7.4399999999999994E-2</v>
       </c>
     </row>
-    <row r="46" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C46">
         <v>6.7729999999999999E-2</v>
       </c>
     </row>
-    <row r="47" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C47">
         <v>8.0850000000000005E-2</v>
       </c>
     </row>
-    <row r="48" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C48">
         <v>0.11828</v>
       </c>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C49">
         <v>9.3960000000000002E-2</v>
       </c>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C50">
         <v>9.2450000000000004E-2</v>
       </c>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C51">
         <f>AVERAGE(C20:C50)</f>
         <v>7.9913225806451604E-2</v>
@@ -2351,59 +2661,59 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="6" width="27.1640625" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" customWidth="1"/>
-    <col min="9" max="9" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="6" width="27.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -2415,41 +2725,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="I6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -2461,47 +2771,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2511,21 +2821,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B0D7D36275C6824D9577E84F31303507" ma:contentTypeVersion="8" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="d1c6f779633cbe19992cb45cae5c12e4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="66be6807-d3c2-44aa-b56e-5889536f4f82" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4df56a45b157f6a3f441e35f37a3595a" ns3:_="">
     <xsd:import namespace="66be6807-d3c2-44aa-b56e-5889536f4f82"/>
@@ -2695,31 +2990,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F86F0C1A-A8A8-4134-BC5E-A0E6B4D13955}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B47F718-7700-45D2-8533-0C0D95D2477F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="66be6807-d3c2-44aa-b56e-5889536f4f82"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75611216-3059-4747-AABA-E5E1E65111FA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2735,4 +3021,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B47F718-7700-45D2-8533-0C0D95D2477F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="66be6807-d3c2-44aa-b56e-5889536f4f82"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F86F0C1A-A8A8-4134-BC5E-A0E6B4D13955}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>